--- a/Code/Results/Cases/Case_0_82/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_82/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.413886040318781</v>
+        <v>13.13570827151799</v>
       </c>
       <c r="D2">
-        <v>4.90758382867327</v>
+        <v>4.909754846414156</v>
       </c>
       <c r="E2">
-        <v>7.550361694658587</v>
+        <v>13.38319263054962</v>
       </c>
       <c r="F2">
-        <v>64.98007036835594</v>
+        <v>66.36719626318511</v>
       </c>
       <c r="G2">
-        <v>100.6439002833041</v>
+        <v>91.92550057054183</v>
       </c>
       <c r="H2">
-        <v>25.51813701990821</v>
+        <v>29.17965981741694</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.329846626055583</v>
+        <v>12.35636330501284</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.8264155823465</v>
+        <v>9.292654946415571</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.057569039140965</v>
+        <v>13.13568159928572</v>
       </c>
       <c r="D3">
-        <v>4.63384519102269</v>
+        <v>4.839045006994266</v>
       </c>
       <c r="E3">
-        <v>7.515856033361884</v>
+        <v>13.41966388238334</v>
       </c>
       <c r="F3">
-        <v>60.939197223813</v>
+        <v>65.86153012665315</v>
       </c>
       <c r="G3">
-        <v>93.83802596577692</v>
+        <v>90.82479694943839</v>
       </c>
       <c r="H3">
-        <v>24.10743562533195</v>
+        <v>29.05688509001541</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.23069513980264</v>
+        <v>12.38562875396479</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.894482998165872</v>
+        <v>9.317239672224913</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502705</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.848259652385106</v>
+        <v>13.13886024888667</v>
       </c>
       <c r="D4">
-        <v>4.46476250698394</v>
+        <v>4.794526842848682</v>
       </c>
       <c r="E4">
-        <v>7.501634515088377</v>
+        <v>13.44419776024397</v>
       </c>
       <c r="F4">
-        <v>58.46767457229943</v>
+        <v>65.57117214644053</v>
       </c>
       <c r="G4">
-        <v>89.64174717242076</v>
+        <v>90.17573754448048</v>
       </c>
       <c r="H4">
-        <v>23.25409030464423</v>
+        <v>28.9900010595173</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.178173799375329</v>
+        <v>12.40586554833572</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>4.936760823661992</v>
+        <v>9.333154588726861</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896364</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.765150781141489</v>
+        <v>13.14095568644013</v>
       </c>
       <c r="D5">
-        <v>4.395451029736416</v>
+        <v>4.776113773612114</v>
       </c>
       <c r="E5">
-        <v>7.497452136283769</v>
+        <v>13.45473318117156</v>
       </c>
       <c r="F5">
-        <v>57.46165899949014</v>
+        <v>65.45798041088217</v>
       </c>
       <c r="G5">
-        <v>87.92507792233074</v>
+        <v>89.91822218555495</v>
       </c>
       <c r="H5">
-        <v>22.90909464273145</v>
+        <v>28.96488851197993</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.158688462589572</v>
+        <v>12.41468085812786</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>4.9541577407837</v>
+        <v>9.339847152604325</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188116</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.751477929198289</v>
+        <v>13.14135185321532</v>
       </c>
       <c r="D6">
-        <v>4.383913442459765</v>
+        <v>4.77304006219359</v>
       </c>
       <c r="E6">
-        <v>7.496851415325316</v>
+        <v>13.45651503773418</v>
       </c>
       <c r="F6">
-        <v>57.29465586502867</v>
+        <v>65.43949682095432</v>
       </c>
       <c r="G6">
-        <v>87.63957897928651</v>
+        <v>89.87589053710894</v>
       </c>
       <c r="H6">
-        <v>22.85196476025667</v>
+        <v>28.96084815066821</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.15556388810183</v>
+        <v>12.41617893244457</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4.957057864919959</v>
+        <v>9.34097098460412</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566596</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.847130184674139</v>
+        <v>13.13888527368356</v>
       </c>
       <c r="D7">
-        <v>4.463829579533544</v>
+        <v>4.794279609809277</v>
       </c>
       <c r="E7">
-        <v>7.501571747019926</v>
+        <v>13.4443376683211</v>
       </c>
       <c r="F7">
-        <v>58.45410362824946</v>
+        <v>65.56962473913063</v>
       </c>
       <c r="G7">
-        <v>89.6186247045631</v>
+        <v>90.17223601880124</v>
       </c>
       <c r="H7">
-        <v>23.24942690549943</v>
+        <v>28.98965369949104</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.177903472379832</v>
+        <v>12.40598213431083</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>4.936994707169462</v>
+        <v>9.333244007138218</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304766463</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.288926572705069</v>
+        <v>13.13503406620736</v>
       </c>
       <c r="D8">
-        <v>4.813299370749031</v>
+        <v>4.885606090086736</v>
       </c>
       <c r="E8">
-        <v>7.536928107151128</v>
+        <v>13.39532334705613</v>
       </c>
       <c r="F8">
-        <v>63.58380621806244</v>
+        <v>66.18871196416556</v>
       </c>
       <c r="G8">
-        <v>98.29912794791265</v>
+        <v>91.5405745487906</v>
       </c>
       <c r="H8">
-        <v>25.02869931625128</v>
+        <v>29.13556723852023</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.293803878384473</v>
+        <v>12.36598242573276</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.849815610235392</v>
+        <v>9.300962192144336</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.24322524383719</v>
+        <v>13.15296658096233</v>
       </c>
       <c r="D9">
-        <v>5.500639837960393</v>
+        <v>5.055722423427215</v>
       </c>
       <c r="E9">
-        <v>7.669261820218652</v>
+        <v>13.3162153413174</v>
       </c>
       <c r="F9">
-        <v>73.82514734235846</v>
+        <v>67.5588022130955</v>
       </c>
       <c r="G9">
-        <v>115.3664123185952</v>
+        <v>94.42466347369628</v>
       </c>
       <c r="H9">
-        <v>28.83956408346501</v>
+        <v>29.48876504272338</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.597795742928962</v>
+        <v>12.30560763148381</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4.680005010199006</v>
+        <v>9.244118589551229</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380647</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.02574289949911</v>
+        <v>13.18184017742235</v>
       </c>
       <c r="D10">
-        <v>6.0278931766608</v>
+        <v>5.174948579169153</v>
       </c>
       <c r="E10">
-        <v>7.819330372070253</v>
+        <v>13.26850148064461</v>
       </c>
       <c r="F10">
-        <v>82.06446303850178</v>
+        <v>68.65511171832949</v>
       </c>
       <c r="G10">
-        <v>128.4688198135952</v>
+        <v>96.64949959343994</v>
       </c>
       <c r="H10">
-        <v>32.07918694945182</v>
+        <v>29.78845194623611</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.887680458850006</v>
+        <v>12.27236206448919</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.550741767375076</v>
+        <v>9.206233211141303</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.41043101072787</v>
+        <v>13.19841109087211</v>
       </c>
       <c r="D11">
-        <v>6.280680803324978</v>
+        <v>5.227881757013342</v>
       </c>
       <c r="E11">
-        <v>7.904075341814484</v>
+        <v>13.24906354478717</v>
       </c>
       <c r="F11">
-        <v>85.97488009120855</v>
+        <v>69.17200953777981</v>
       </c>
       <c r="G11">
-        <v>134.6784379540156</v>
+        <v>97.68094682909805</v>
       </c>
       <c r="H11">
-        <v>33.61659838653382</v>
+        <v>29.93331183983019</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.041050330661903</v>
+        <v>12.25967186736832</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.489093887784916</v>
+        <v>9.189826973245108</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.56179572718318</v>
+        <v>13.20518160696949</v>
       </c>
       <c r="D12">
-        <v>6.379398611586248</v>
+        <v>5.247734323332162</v>
       </c>
       <c r="E12">
-        <v>7.939194725475368</v>
+        <v>13.2420296947837</v>
       </c>
       <c r="F12">
-        <v>87.49347444330058</v>
+        <v>69.37023878154591</v>
       </c>
       <c r="G12">
-        <v>137.0887673926917</v>
+        <v>98.07399808551676</v>
       </c>
       <c r="H12">
-        <v>34.21366045246616</v>
+        <v>29.98937197065196</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.1031695292194</v>
+        <v>12.25521805012015</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.465089328264058</v>
+        <v>9.183732382461947</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585681918</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.528909465147</v>
+        <v>13.20370140180643</v>
       </c>
       <c r="D13">
-        <v>6.357980266251031</v>
+        <v>5.243467331644287</v>
       </c>
       <c r="E13">
-        <v>7.931482515719898</v>
+        <v>13.24353000889991</v>
       </c>
       <c r="F13">
-        <v>87.16442255256973</v>
+        <v>69.32743778010743</v>
       </c>
       <c r="G13">
-        <v>136.5665412958655</v>
+        <v>97.98924292881092</v>
       </c>
       <c r="H13">
-        <v>34.08428659858214</v>
+        <v>29.97724520575006</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.089590972606727</v>
+        <v>12.25616159001053</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.470293838996071</v>
+        <v>9.185039724831014</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617575</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.42275789039054</v>
+        <v>13.19895816903234</v>
       </c>
       <c r="D14">
-        <v>6.288733783314196</v>
+        <v>5.22951891471879</v>
       </c>
       <c r="E14">
-        <v>7.906899050581924</v>
+        <v>13.24847830981323</v>
       </c>
       <c r="F14">
-        <v>86.0989480768263</v>
+        <v>69.18826877130317</v>
       </c>
       <c r="G14">
-        <v>134.875382038192</v>
+        <v>97.71323582550512</v>
       </c>
       <c r="H14">
-        <v>33.66537737025545</v>
+        <v>29.93789992741326</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.046072788814671</v>
+        <v>12.25929839075908</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.487134119985547</v>
+        <v>9.189323206371105</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489661</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.35853841115384</v>
+        <v>13.19611736010382</v>
       </c>
       <c r="D15">
-        <v>6.246751571854297</v>
+        <v>5.22094995923114</v>
       </c>
       <c r="E15">
-        <v>7.892260109645741</v>
+        <v>13.25155188081935</v>
       </c>
       <c r="F15">
-        <v>85.45179339752518</v>
+        <v>69.10334443098414</v>
       </c>
       <c r="G15">
-        <v>133.848051063044</v>
+        <v>97.54448499807063</v>
       </c>
       <c r="H15">
-        <v>33.41094068901459</v>
+        <v>29.91395602455493</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.019979012460229</v>
+        <v>12.26126562388254</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.497353849259174</v>
+        <v>9.191962313089309</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549472</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.0012969992331</v>
+        <v>13.18082649889512</v>
       </c>
       <c r="D16">
-        <v>6.011717834716912</v>
+        <v>5.171462639368021</v>
       </c>
       <c r="E16">
-        <v>7.814173565322744</v>
+        <v>13.26981749091202</v>
       </c>
       <c r="F16">
-        <v>81.81325467919379</v>
+        <v>68.62168666811473</v>
       </c>
       <c r="G16">
-        <v>128.0697444351141</v>
+        <v>96.58245435307026</v>
       </c>
       <c r="H16">
-        <v>31.98042237502044</v>
+        <v>29.7791548550043</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.878161510083468</v>
+        <v>12.27324051585281</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.554694447304099</v>
+        <v>9.207321976127862</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.42464283346099</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.79038641537845</v>
+        <v>13.172327230208</v>
       </c>
       <c r="D17">
-        <v>5.871493234779428</v>
+        <v>5.140766536579849</v>
       </c>
       <c r="E17">
-        <v>7.770875784276095</v>
+        <v>13.28160415744345</v>
       </c>
       <c r="F17">
-        <v>79.63096582243375</v>
+        <v>68.33077587364211</v>
       </c>
       <c r="G17">
-        <v>124.6019607140599</v>
+        <v>95.99701092761156</v>
       </c>
       <c r="H17">
-        <v>31.12242700224349</v>
+        <v>29.69862881748112</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.797217800710452</v>
+        <v>12.2812112315589</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.588996781833022</v>
+        <v>9.216956015557567</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.67165390809748</v>
+        <v>13.16776204962476</v>
       </c>
       <c r="D18">
-        <v>5.791967156808108</v>
+        <v>5.122988527991819</v>
       </c>
       <c r="E18">
-        <v>7.747471633596836</v>
+        <v>13.28859689783839</v>
       </c>
       <c r="F18">
-        <v>78.38989084801061</v>
+        <v>68.16517070828408</v>
       </c>
       <c r="G18">
-        <v>122.6290038485878</v>
+        <v>95.66212064698554</v>
       </c>
       <c r="H18">
-        <v>30.634468037631</v>
+        <v>29.65311679593657</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.752610017590976</v>
+        <v>12.28602471241931</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.608478473775694</v>
+        <v>9.2225752549075</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.5640428768043</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.63185977850558</v>
+        <v>13.1662718497144</v>
       </c>
       <c r="D19">
-        <v>5.765208379326215</v>
+        <v>5.116948320296058</v>
       </c>
       <c r="E19">
-        <v>7.739789222354212</v>
+        <v>13.29100113954163</v>
       </c>
       <c r="F19">
-        <v>77.97177425002775</v>
+        <v>68.10939855761879</v>
       </c>
       <c r="G19">
-        <v>121.9641736224772</v>
+        <v>95.54905851210921</v>
       </c>
       <c r="H19">
-        <v>30.47007204800127</v>
+        <v>29.63784599671759</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.73781893075553</v>
+        <v>12.28769374024919</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.615037951350017</v>
+        <v>9.22449125796023</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880252</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.81256247823993</v>
+        <v>13.17319851278455</v>
       </c>
       <c r="D20">
-        <v>5.886297194472375</v>
+        <v>5.144046893981914</v>
       </c>
       <c r="E20">
-        <v>7.775325825890356</v>
+        <v>13.28032735859444</v>
       </c>
       <c r="F20">
-        <v>79.86172975038201</v>
+        <v>68.36156678765025</v>
       </c>
       <c r="G20">
-        <v>124.9687420778227</v>
+        <v>96.05914412413355</v>
       </c>
       <c r="H20">
-        <v>31.21315612575507</v>
+        <v>29.70711784796469</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.805627160109411</v>
+        <v>12.28033902842992</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.585372381440942</v>
+        <v>9.215922390486043</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799483449</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.45376612176353</v>
+        <v>13.20033791579103</v>
       </c>
       <c r="D21">
-        <v>6.308979940068496</v>
+        <v>5.233621151472451</v>
       </c>
       <c r="E21">
-        <v>7.914030812899177</v>
+        <v>13.24701599585166</v>
       </c>
       <c r="F21">
-        <v>86.41072459431912</v>
+        <v>69.22907947623979</v>
       </c>
       <c r="G21">
-        <v>135.3702747421083</v>
+        <v>97.7942414559449</v>
       </c>
       <c r="H21">
-        <v>33.78795683513224</v>
+        <v>29.9494240762066</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.058735526890635</v>
+        <v>12.25836747766063</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.482208242688271</v>
+        <v>9.188061846696909</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633599</v>
+        <v>21.70751365554064</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.90745418678246</v>
+        <v>13.22096340698366</v>
       </c>
       <c r="D22">
-        <v>6.603718429865974</v>
+        <v>5.291041576425668</v>
       </c>
       <c r="E22">
-        <v>8.022912305362615</v>
+        <v>13.22715077172102</v>
       </c>
       <c r="F22">
-        <v>90.92456405367456</v>
+        <v>69.81050981515317</v>
       </c>
       <c r="G22">
-        <v>142.5326977619073</v>
+        <v>98.94244608913245</v>
       </c>
       <c r="H22">
-        <v>35.56273044909545</v>
+        <v>30.11479618349554</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.248566891396912</v>
+        <v>12.24605850294761</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.410714312542219</v>
+        <v>9.170541266988861</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.66137920198983</v>
+        <v>13.20969057099</v>
       </c>
       <c r="D23">
-        <v>6.444165665689086</v>
+        <v>5.260499294461462</v>
       </c>
       <c r="E23">
-        <v>7.962820761436006</v>
+        <v>13.2375785648729</v>
       </c>
       <c r="F23">
-        <v>88.48700272518279</v>
+        <v>69.49890823918572</v>
       </c>
       <c r="G23">
-        <v>138.6654055047038</v>
+        <v>98.32843190591954</v>
       </c>
       <c r="H23">
-        <v>34.60429298448738</v>
+        <v>30.02590027946225</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.144560951365237</v>
+        <v>12.25243981281001</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.449364254016341</v>
+        <v>9.179829709834952</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.80252892729194</v>
+        <v>13.17280360569008</v>
       </c>
       <c r="D24">
-        <v>5.879601002524637</v>
+        <v>5.142564250242428</v>
       </c>
       <c r="E24">
-        <v>7.773309371171322</v>
+        <v>13.28090392528953</v>
       </c>
       <c r="F24">
-        <v>79.75736014116082</v>
+        <v>68.34764108755151</v>
       </c>
       <c r="G24">
-        <v>124.8028572425986</v>
+        <v>96.03104842109684</v>
       </c>
       <c r="H24">
-        <v>31.17212132218587</v>
+        <v>29.70327751531613</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.801819348283468</v>
+        <v>12.28073263205317</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.587011700835101</v>
+        <v>9.21638944156266</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911919</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.973422347430324</v>
+        <v>13.14536869356388</v>
       </c>
       <c r="D25">
-        <v>5.312763676056724</v>
+        <v>5.010692816027857</v>
       </c>
       <c r="E25">
-        <v>7.625468977728028</v>
+        <v>13.3357914050063</v>
       </c>
       <c r="F25">
-        <v>71.01384454360253</v>
+        <v>67.17197704623268</v>
       </c>
       <c r="G25">
-        <v>110.7077034729256</v>
+        <v>93.62461101388271</v>
       </c>
       <c r="H25">
-        <v>27.67692586823139</v>
+        <v>29.38609650979222</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.505655104902366</v>
+        <v>12.31999639875615</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>4.726262450130799</v>
+        <v>9.258810910984556</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088412</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_82/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_82/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.13570827151799</v>
+        <v>9.41388604031893</v>
       </c>
       <c r="D2">
-        <v>4.909754846414156</v>
+        <v>4.907583828673094</v>
       </c>
       <c r="E2">
-        <v>13.38319263054962</v>
+        <v>7.550361694658644</v>
       </c>
       <c r="F2">
-        <v>66.36719626318511</v>
+        <v>64.98007036835605</v>
       </c>
       <c r="G2">
-        <v>91.92550057054183</v>
+        <v>100.6439002833042</v>
       </c>
       <c r="H2">
-        <v>29.17965981741694</v>
+        <v>25.51813701990826</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.35636330501284</v>
+        <v>7.32984662605565</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.292654946415571</v>
+        <v>4.826415582346496</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883691</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.13568159928572</v>
+        <v>9.057569039140997</v>
       </c>
       <c r="D3">
-        <v>4.839045006994266</v>
+        <v>4.633845191022933</v>
       </c>
       <c r="E3">
-        <v>13.41966388238334</v>
+        <v>7.515856033361895</v>
       </c>
       <c r="F3">
-        <v>65.86153012665315</v>
+        <v>60.93919722381306</v>
       </c>
       <c r="G3">
-        <v>90.82479694943839</v>
+        <v>93.83802596577704</v>
       </c>
       <c r="H3">
-        <v>29.05688509001541</v>
+        <v>24.10743562533195</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.38562875396479</v>
+        <v>7.23069513980255</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.317239672224913</v>
+        <v>4.894482998165815</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502705</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.13886024888667</v>
+        <v>8.848259652385106</v>
       </c>
       <c r="D4">
-        <v>4.794526842848682</v>
+        <v>4.464762506984099</v>
       </c>
       <c r="E4">
-        <v>13.44419776024397</v>
+        <v>7.501634515088383</v>
       </c>
       <c r="F4">
-        <v>65.57117214644053</v>
+        <v>58.46767457229938</v>
       </c>
       <c r="G4">
-        <v>90.17573754448048</v>
+        <v>89.64174717242066</v>
       </c>
       <c r="H4">
-        <v>28.9900010595173</v>
+        <v>23.2540903046442</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.40586554833572</v>
+        <v>7.178173799375291</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.333154588726861</v>
+        <v>4.936760823662028</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896364</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.14095568644013</v>
+        <v>8.765150781141617</v>
       </c>
       <c r="D5">
-        <v>4.776113773612114</v>
+        <v>4.395451029736399</v>
       </c>
       <c r="E5">
-        <v>13.45473318117156</v>
+        <v>7.497452136283774</v>
       </c>
       <c r="F5">
-        <v>65.45798041088217</v>
+        <v>57.46165899949012</v>
       </c>
       <c r="G5">
-        <v>89.91822218555495</v>
+        <v>87.92507792233057</v>
       </c>
       <c r="H5">
-        <v>28.96488851197993</v>
+        <v>22.90909464273145</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.41468085812786</v>
+        <v>7.158688462589565</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.339847152604325</v>
+        <v>4.954157740783606</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188116</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.14135185321532</v>
+        <v>8.751477929198256</v>
       </c>
       <c r="D6">
-        <v>4.77304006219359</v>
+        <v>4.383913442459765</v>
       </c>
       <c r="E6">
-        <v>13.45651503773418</v>
+        <v>7.496851415325264</v>
       </c>
       <c r="F6">
-        <v>65.43949682095432</v>
+        <v>57.29465586502867</v>
       </c>
       <c r="G6">
-        <v>89.87589053710894</v>
+        <v>87.63957897928651</v>
       </c>
       <c r="H6">
-        <v>28.96084815066821</v>
+        <v>22.85196476025667</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.41617893244457</v>
+        <v>7.155563888101792</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.34097098460412</v>
+        <v>4.957057864919956</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566596</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.13888527368356</v>
+        <v>8.847130184674231</v>
       </c>
       <c r="D7">
-        <v>4.794279609809277</v>
+        <v>4.463829579533488</v>
       </c>
       <c r="E7">
-        <v>13.4443376683211</v>
+        <v>7.501571747019977</v>
       </c>
       <c r="F7">
-        <v>65.56962473913063</v>
+        <v>58.45410362824948</v>
       </c>
       <c r="G7">
-        <v>90.17223601880124</v>
+        <v>89.61862470456322</v>
       </c>
       <c r="H7">
-        <v>28.98965369949104</v>
+        <v>23.24942690549943</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.40598213431083</v>
+        <v>7.17790347237983</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.333244007138218</v>
+        <v>4.93699470716949</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304766463</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.13503406620736</v>
+        <v>9.288926572705073</v>
       </c>
       <c r="D8">
-        <v>4.885606090086736</v>
+        <v>4.813299370748836</v>
       </c>
       <c r="E8">
-        <v>13.39532334705613</v>
+        <v>7.536928107151009</v>
       </c>
       <c r="F8">
-        <v>66.18871196416556</v>
+        <v>63.58380621806234</v>
       </c>
       <c r="G8">
-        <v>91.5405745487906</v>
+        <v>98.29912794791251</v>
       </c>
       <c r="H8">
-        <v>29.13556723852023</v>
+        <v>25.02869931625124</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.36598242573276</v>
+        <v>7.2938038783845</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.300962192144336</v>
+        <v>4.849815610235353</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.15296658096233</v>
+        <v>10.24322524383721</v>
       </c>
       <c r="D9">
-        <v>5.055722423427215</v>
+        <v>5.500639837960392</v>
       </c>
       <c r="E9">
-        <v>13.3162153413174</v>
+        <v>7.669261820218633</v>
       </c>
       <c r="F9">
-        <v>67.5588022130955</v>
+        <v>73.82514734235886</v>
       </c>
       <c r="G9">
-        <v>94.42466347369628</v>
+        <v>115.3664123185959</v>
       </c>
       <c r="H9">
-        <v>29.48876504272338</v>
+        <v>28.8395640834652</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.30560763148381</v>
+        <v>7.597795742928944</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.244118589551229</v>
+        <v>4.680005010199039</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.18184017742235</v>
+        <v>11.02574289949925</v>
       </c>
       <c r="D10">
-        <v>5.174948579169153</v>
+        <v>6.027893176660886</v>
       </c>
       <c r="E10">
-        <v>13.26850148064461</v>
+        <v>7.81933037207023</v>
       </c>
       <c r="F10">
-        <v>68.65511171832949</v>
+        <v>82.06446303850193</v>
       </c>
       <c r="G10">
-        <v>96.64949959343994</v>
+        <v>128.4688198135954</v>
       </c>
       <c r="H10">
-        <v>29.78845194623611</v>
+        <v>32.07918694945189</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.27236206448919</v>
+        <v>7.88768045885001</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.206233211141303</v>
+        <v>4.550741767375023</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.19841109087211</v>
+        <v>11.41043101072779</v>
       </c>
       <c r="D11">
-        <v>5.227881757013342</v>
+        <v>6.28068080332504</v>
       </c>
       <c r="E11">
-        <v>13.24906354478717</v>
+        <v>7.904075341814494</v>
       </c>
       <c r="F11">
-        <v>69.17200953777981</v>
+        <v>85.97488009120853</v>
       </c>
       <c r="G11">
-        <v>97.68094682909805</v>
+        <v>134.6784379540156</v>
       </c>
       <c r="H11">
-        <v>29.93331183983019</v>
+        <v>33.61659838653379</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.25967186736832</v>
+        <v>8.041050330661893</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.189826973245108</v>
+        <v>4.489093887784978</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374474</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.20518160696949</v>
+        <v>11.56179572718321</v>
       </c>
       <c r="D12">
-        <v>5.247734323332162</v>
+        <v>6.379398611586221</v>
       </c>
       <c r="E12">
-        <v>13.2420296947837</v>
+        <v>7.939194725475366</v>
       </c>
       <c r="F12">
-        <v>69.37023878154591</v>
+        <v>87.49347444330068</v>
       </c>
       <c r="G12">
-        <v>98.07399808551676</v>
+        <v>137.0887673926919</v>
       </c>
       <c r="H12">
-        <v>29.98937197065196</v>
+        <v>34.21366045246621</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.25521805012015</v>
+        <v>8.103169529219453</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.183732382461947</v>
+        <v>4.465089328263979</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585681918</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.20370140180643</v>
+        <v>11.5289094651469</v>
       </c>
       <c r="D13">
-        <v>5.243467331644287</v>
+        <v>6.357980266251192</v>
       </c>
       <c r="E13">
-        <v>13.24353000889991</v>
+        <v>7.9314825157199</v>
       </c>
       <c r="F13">
-        <v>69.32743778010743</v>
+        <v>87.1644225525698</v>
       </c>
       <c r="G13">
-        <v>97.98924292881092</v>
+        <v>136.5665412958655</v>
       </c>
       <c r="H13">
-        <v>29.97724520575006</v>
+        <v>34.08428659858219</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.25616159001053</v>
+        <v>8.089590972606707</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.185039724831014</v>
+        <v>4.470293838996059</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617576</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.19895816903234</v>
+        <v>11.42275789039056</v>
       </c>
       <c r="D14">
-        <v>5.22951891471879</v>
+        <v>6.288733783314219</v>
       </c>
       <c r="E14">
-        <v>13.24847830981323</v>
+        <v>7.906899050581982</v>
       </c>
       <c r="F14">
-        <v>69.18826877130317</v>
+        <v>86.09894807682636</v>
       </c>
       <c r="G14">
-        <v>97.71323582550512</v>
+        <v>134.8753820381921</v>
       </c>
       <c r="H14">
-        <v>29.93789992741326</v>
+        <v>33.66537737025549</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.25929839075908</v>
+        <v>8.046072788814667</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.189323206371105</v>
+        <v>4.487134119985613</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489661</v>
+        <v>31.43851144188476</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.19611736010382</v>
+        <v>11.3585384111538</v>
       </c>
       <c r="D15">
-        <v>5.22094995923114</v>
+        <v>6.246751571854372</v>
       </c>
       <c r="E15">
-        <v>13.25155188081935</v>
+        <v>7.892260109645719</v>
       </c>
       <c r="F15">
-        <v>69.10334443098414</v>
+        <v>85.45179339752536</v>
       </c>
       <c r="G15">
-        <v>97.54448499807063</v>
+        <v>133.8480510630443</v>
       </c>
       <c r="H15">
-        <v>29.91395602455493</v>
+        <v>33.41094068901467</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.26126562388254</v>
+        <v>8.019979012460233</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.191962313089309</v>
+        <v>4.497353849259232</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549475</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.18082649889512</v>
+        <v>11.00129699923305</v>
       </c>
       <c r="D16">
-        <v>5.171462639368021</v>
+        <v>6.011717834716868</v>
       </c>
       <c r="E16">
-        <v>13.26981749091202</v>
+        <v>7.814173565322709</v>
       </c>
       <c r="F16">
-        <v>68.62168666811473</v>
+        <v>81.8132546791939</v>
       </c>
       <c r="G16">
-        <v>96.58245435307026</v>
+        <v>128.0697444351143</v>
       </c>
       <c r="H16">
-        <v>29.7791548550043</v>
+        <v>31.98042237502051</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.27324051585281</v>
+        <v>7.878161510083456</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.207321976127862</v>
+        <v>4.554694447304088</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.172327230208</v>
+        <v>10.7903864153785</v>
       </c>
       <c r="D17">
-        <v>5.140766536579849</v>
+        <v>5.871493234779407</v>
       </c>
       <c r="E17">
-        <v>13.28160415744345</v>
+        <v>7.770875784276112</v>
       </c>
       <c r="F17">
-        <v>68.33077587364211</v>
+        <v>79.63096582243338</v>
       </c>
       <c r="G17">
-        <v>95.99701092761156</v>
+        <v>124.6019607140593</v>
       </c>
       <c r="H17">
-        <v>29.69862881748112</v>
+        <v>31.12242700224334</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.2812112315589</v>
+        <v>7.797217800710452</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.216956015557567</v>
+        <v>4.588996781833045</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119274</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.16776204962476</v>
+        <v>10.67165390809747</v>
       </c>
       <c r="D18">
-        <v>5.122988527991819</v>
+        <v>5.791967156808109</v>
       </c>
       <c r="E18">
-        <v>13.28859689783839</v>
+        <v>7.747471633596809</v>
       </c>
       <c r="F18">
-        <v>68.16517070828408</v>
+        <v>78.38989084801106</v>
       </c>
       <c r="G18">
-        <v>95.66212064698554</v>
+        <v>122.6290038485885</v>
       </c>
       <c r="H18">
-        <v>29.65311679593657</v>
+        <v>30.63446803763117</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.28602471241931</v>
+        <v>7.752610017590979</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.2225752549075</v>
+        <v>4.608478473775665</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680426</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.1662718497144</v>
+        <v>10.63185977850555</v>
       </c>
       <c r="D19">
-        <v>5.116948320296058</v>
+        <v>5.765208379326345</v>
       </c>
       <c r="E19">
-        <v>13.29100113954163</v>
+        <v>7.73978922235414</v>
       </c>
       <c r="F19">
-        <v>68.10939855761879</v>
+        <v>77.97177425002818</v>
       </c>
       <c r="G19">
-        <v>95.54905851210921</v>
+        <v>121.964173622478</v>
       </c>
       <c r="H19">
-        <v>29.63784599671759</v>
+        <v>30.47007204800144</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.28769374024919</v>
+        <v>7.737818930755509</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.22449125796023</v>
+        <v>4.615037951350017</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880252</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.17319851278455</v>
+        <v>10.81256247824004</v>
       </c>
       <c r="D20">
-        <v>5.144046893981914</v>
+        <v>5.886297194472282</v>
       </c>
       <c r="E20">
-        <v>13.28032735859444</v>
+        <v>7.775325825890424</v>
       </c>
       <c r="F20">
-        <v>68.36156678765025</v>
+        <v>79.86172975038239</v>
       </c>
       <c r="G20">
-        <v>96.05914412413355</v>
+        <v>124.9687420778232</v>
       </c>
       <c r="H20">
-        <v>29.70711784796469</v>
+        <v>31.21315612575519</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.28033902842992</v>
+        <v>7.805627160109426</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.215922390486043</v>
+        <v>4.585372381440973</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799483449</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.20033791579103</v>
+        <v>11.45376612176348</v>
       </c>
       <c r="D21">
-        <v>5.233621151472451</v>
+        <v>6.30897994006851</v>
       </c>
       <c r="E21">
-        <v>13.24701599585166</v>
+        <v>7.914030812899112</v>
       </c>
       <c r="F21">
-        <v>69.22907947623979</v>
+        <v>86.41072459431886</v>
       </c>
       <c r="G21">
-        <v>97.7942414559449</v>
+        <v>135.3702747421079</v>
       </c>
       <c r="H21">
-        <v>29.9494240762066</v>
+        <v>33.78795683513216</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.25836747766063</v>
+        <v>8.058735526890629</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.188061846696909</v>
+        <v>4.482208242688186</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554064</v>
+        <v>31.50948335633597</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.22096340698366</v>
+        <v>11.90745418678255</v>
       </c>
       <c r="D22">
-        <v>5.291041576425668</v>
+        <v>6.603718429865974</v>
       </c>
       <c r="E22">
-        <v>13.22715077172102</v>
+        <v>8.022912305362564</v>
       </c>
       <c r="F22">
-        <v>69.81050981515317</v>
+        <v>90.924564053675</v>
       </c>
       <c r="G22">
-        <v>98.94244608913245</v>
+        <v>142.532697761908</v>
       </c>
       <c r="H22">
-        <v>30.11479618349554</v>
+        <v>35.56273044909562</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.24605850294761</v>
+        <v>8.248566891396923</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.170541266988861</v>
+        <v>4.410714312542132</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050591</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.20969057099</v>
+        <v>11.6613792019898</v>
       </c>
       <c r="D23">
-        <v>5.260499294461462</v>
+        <v>6.444165665689146</v>
       </c>
       <c r="E23">
-        <v>13.2375785648729</v>
+        <v>7.962820761435975</v>
       </c>
       <c r="F23">
-        <v>69.49890823918572</v>
+        <v>88.48700272518315</v>
       </c>
       <c r="G23">
-        <v>98.32843190591954</v>
+        <v>138.6654055047044</v>
       </c>
       <c r="H23">
-        <v>30.02590027946225</v>
+        <v>34.60429298448749</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.25243981281001</v>
+        <v>8.144560951365214</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.179829709834952</v>
+        <v>4.449364254016351</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>31.97238356075504</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.17280360569008</v>
+        <v>10.80252892729198</v>
       </c>
       <c r="D24">
-        <v>5.142564250242428</v>
+        <v>5.879601002524736</v>
       </c>
       <c r="E24">
-        <v>13.28090392528953</v>
+        <v>7.773309371171287</v>
       </c>
       <c r="F24">
-        <v>68.34764108755151</v>
+        <v>79.75736014116141</v>
       </c>
       <c r="G24">
-        <v>96.03104842109684</v>
+        <v>124.8028572425996</v>
       </c>
       <c r="H24">
-        <v>29.70327751531613</v>
+        <v>31.1721213221861</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.28073263205317</v>
+        <v>7.801819348283417</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.21638944156266</v>
+        <v>4.587011700835041</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911916</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.14536869356388</v>
+        <v>9.973422347430299</v>
       </c>
       <c r="D25">
-        <v>5.010692816027857</v>
+        <v>5.312763676056725</v>
       </c>
       <c r="E25">
-        <v>13.3357914050063</v>
+        <v>7.625468977727969</v>
       </c>
       <c r="F25">
-        <v>67.17197704623268</v>
+        <v>71.01384454360254</v>
       </c>
       <c r="G25">
-        <v>93.62461101388271</v>
+        <v>110.7077034729256</v>
       </c>
       <c r="H25">
-        <v>29.38609650979222</v>
+        <v>27.67692586823141</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.31999639875615</v>
+        <v>7.505655104902321</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.258810910984556</v>
+        <v>4.726262450130882</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088412</v>
       </c>
       <c r="O25">
         <v>0</v>
